--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_bus_resonant.xlsx
@@ -734,16 +734,16 @@
         <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.302728497187094</v>
+        <v>1.300136580403904</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.12326523947946</v>
       </c>
       <c r="J2">
-        <v>1.324394474185788</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
         <v>1.324394474104227</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.691552301570298E-11</v>
+        <v>-8.693001799345935E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965608</v>
+        <v>0.9526279648965611</v>
       </c>
       <c r="Q3">
-        <v>1.458424842703151E-10</v>
+        <v>1.457758332598775E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998456</v>
+        <v>179.9999999998457</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.952627964640425</v>
+        <v>0.9526279646404248</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0.9526279649233326</v>
       </c>
       <c r="Q4">
-        <v>1.564969451257005E-09</v>
+        <v>1.564884158991665E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315012</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0.9526279649322563</v>
       </c>
       <c r="Q5">
-        <v>2.038008437079742E-09</v>
+        <v>2.037922457000812E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315011</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322563</v>
+        <v>0.9526279649322565</v>
       </c>
       <c r="Q6">
-        <v>2.038006580248032E-09</v>
+        <v>2.037920897024357E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.302728497187094</v>
+        <v>1.300136580403904</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.12326523947946</v>
       </c>
       <c r="J2">
-        <v>1.324394474185788</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
         <v>1.324394474104227</v>
@@ -1122,19 +1122,19 @@
         <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982758469</v>
+        <v>0.2400406982758468</v>
       </c>
       <c r="P2">
         <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997144</v>
+        <v>5.766209884997129</v>
       </c>
       <c r="R2">
         <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>173.4315681772756</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.020226441315021</v>
+        <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.240040698163019</v>
+        <v>0.2400406981630182</v>
       </c>
       <c r="P3">
-        <v>0.8960735770061722</v>
+        <v>0.8960735770061725</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977265</v>
+        <v>5.766209884977202</v>
       </c>
       <c r="R3">
-        <v>-121.3466079609365</v>
+        <v>-121.3466079609366</v>
       </c>
       <c r="S3">
         <v>173.4315681785684</v>
@@ -1237,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020226441292308</v>
+        <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651695</v>
+        <v>0.2400406981651683</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323209</v>
+        <v>0.896073577032321</v>
       </c>
       <c r="Q4">
-        <v>5.766209886018152</v>
+        <v>5.766209886018082</v>
       </c>
       <c r="R4">
-        <v>-121.346607946951</v>
+        <v>-121.3466079469511</v>
       </c>
       <c r="S4">
         <v>173.4315681777209</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.020226441284737</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658864</v>
+        <v>0.2400406981658849</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410372</v>
+        <v>0.8960735770410371</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365115</v>
+        <v>5.766209886365035</v>
       </c>
       <c r="R5">
-        <v>-121.3466079422892</v>
+        <v>-121.3466079422893</v>
       </c>
       <c r="S5">
         <v>173.4315681774384</v>
@@ -1358,16 +1358,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658862</v>
+        <v>0.240040698165885</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410371</v>
+        <v>0.8960735770410372</v>
       </c>
       <c r="Q6">
-        <v>5.766209886365118</v>
+        <v>5.766209886365041</v>
       </c>
       <c r="R6">
-        <v>-121.3466079422892</v>
+        <v>-121.3466079422893</v>
       </c>
       <c r="S6">
         <v>173.4315681774384</v>
@@ -1468,16 +1468,16 @@
         <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.302728497187094</v>
+        <v>1.300136580403904</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.12326523947946</v>
       </c>
       <c r="J2">
-        <v>1.324394474185788</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
         <v>1.324394474104227</v>
@@ -1489,19 +1489,19 @@
         <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982758469</v>
+        <v>0.2400406982758468</v>
       </c>
       <c r="P2">
         <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997144</v>
+        <v>5.766209884997129</v>
       </c>
       <c r="R2">
         <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>173.4315681772756</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.020226441315021</v>
+        <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.240040698163019</v>
+        <v>0.2400406981630182</v>
       </c>
       <c r="P3">
-        <v>0.8960735770061722</v>
+        <v>0.8960735770061725</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977265</v>
+        <v>5.766209884977202</v>
       </c>
       <c r="R3">
-        <v>-121.3466079609365</v>
+        <v>-121.3466079609366</v>
       </c>
       <c r="S3">
         <v>173.4315681785684</v>
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020226441292308</v>
+        <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651695</v>
+        <v>0.2400406981651683</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323209</v>
+        <v>0.896073577032321</v>
       </c>
       <c r="Q4">
-        <v>5.766209886018152</v>
+        <v>5.766209886018082</v>
       </c>
       <c r="R4">
-        <v>-121.346607946951</v>
+        <v>-121.3466079469511</v>
       </c>
       <c r="S4">
         <v>173.4315681777209</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.020226441284737</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658864</v>
+        <v>0.2400406981658849</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410372</v>
+        <v>0.8960735770410371</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365115</v>
+        <v>5.766209886365035</v>
       </c>
       <c r="R5">
-        <v>-121.3466079422892</v>
+        <v>-121.3466079422893</v>
       </c>
       <c r="S5">
         <v>173.4315681774384</v>
@@ -1725,16 +1725,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658862</v>
+        <v>0.240040698165885</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410371</v>
+        <v>0.8960735770410372</v>
       </c>
       <c r="Q6">
-        <v>5.766209886365118</v>
+        <v>5.766209886365041</v>
       </c>
       <c r="R6">
-        <v>-121.3466079422892</v>
+        <v>-121.3466079422893</v>
       </c>
       <c r="S6">
         <v>173.4315681774384</v>
@@ -1820,49 +1820,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.636363763754281</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>3.636363763754281</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157662429</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>230.9401157662429</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.477132224444759</v>
+        <v>1.473741695981223</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.89432665739345</v>
       </c>
       <c r="J2">
-        <v>1.504993721246253</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695297</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845059</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849899</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.719866055265707E-10</v>
+        <v>1.720000738836041E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1918,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905282</v>
+        <v>0.8660254038905273</v>
       </c>
       <c r="Q3">
-        <v>4.106534001096903E-10</v>
+        <v>4.107024910332E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.86602540365463</v>
+        <v>0.8660254036546302</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254039148656</v>
+        <v>0.8660254039148645</v>
       </c>
       <c r="Q4">
-        <v>3.135356829065207E-09</v>
+        <v>3.135401778839794E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999968558</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465174</v>
+        <v>0.8660254036465177</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229779</v>
+        <v>0.8660254039229771</v>
       </c>
       <c r="Q5">
-        <v>4.043586392856078E-09</v>
+        <v>4.04362902977858E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999959476</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465173</v>
+        <v>0.8660254036465177</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254039229779</v>
+        <v>0.866025403922977</v>
       </c>
       <c r="Q6">
-        <v>4.043589212870586E-09</v>
+        <v>4.043629123684519E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999959476</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2187,49 +2187,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.636363763754281</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>3.636363763754281</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157662429</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>230.9401157662429</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.477132224444759</v>
+        <v>1.473741695981223</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.89432665739345</v>
       </c>
       <c r="J2">
-        <v>1.504993721246253</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695297</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845059</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849899</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.719866055265707E-10</v>
+        <v>1.720000738836041E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905282</v>
+        <v>0.8660254038905273</v>
       </c>
       <c r="Q3">
-        <v>4.106534001096903E-10</v>
+        <v>4.107024910332E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.86602540365463</v>
+        <v>0.8660254036546302</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254039148656</v>
+        <v>0.8660254039148645</v>
       </c>
       <c r="Q4">
-        <v>3.135356829065207E-09</v>
+        <v>3.135401778839794E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999968558</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465174</v>
+        <v>0.8660254036465177</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229779</v>
+        <v>0.8660254039229771</v>
       </c>
       <c r="Q5">
-        <v>4.043586392856078E-09</v>
+        <v>4.04362902977858E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999959476</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465173</v>
+        <v>0.8660254036465177</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254039229779</v>
+        <v>0.866025403922977</v>
       </c>
       <c r="Q6">
-        <v>4.043589212870586E-09</v>
+        <v>4.043629123684519E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999959476</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2569,40 +2569,40 @@
         <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.477132224444759</v>
+        <v>1.473741695981223</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.89432665739345</v>
       </c>
       <c r="J2">
-        <v>1.504993721246253</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695297</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.9220324944339026</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
         <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115777</v>
+        <v>5.173976904115781</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>174.1659345853095</v>
+        <v>174.1659345853096</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2649,16 +2649,16 @@
         <v>0.9220324943451749</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166731</v>
+        <v>0.1964063472166736</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689188</v>
+        <v>0.8180121062689184</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114548</v>
+        <v>5.173976904114572</v>
       </c>
       <c r="R3">
-        <v>-122.1449202549968</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
         <v>174.1659345864975</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235479</v>
+        <v>0.9220324943235482</v>
       </c>
       <c r="O4">
-        <v>0.1964063472443386</v>
+        <v>0.1964063472443391</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966172</v>
+        <v>0.8180121062966164</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219877</v>
+        <v>5.173976906219908</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329783</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
         <v>174.1659345844574</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163388</v>
+        <v>0.9220324943163393</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535605</v>
+        <v>0.1964063472535608</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058489</v>
       </c>
       <c r="Q5">
-        <v>5.17397690692166</v>
+        <v>5.173976906921678</v>
       </c>
       <c r="R5">
-        <v>-122.1449202256387</v>
+        <v>-122.1449202256391</v>
       </c>
       <c r="S5">
-        <v>174.1659345837773</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163387</v>
+        <v>0.9220324943163393</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535605</v>
+        <v>0.1964063472535609</v>
       </c>
       <c r="P6">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058489</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921656</v>
+        <v>5.173976906921684</v>
       </c>
       <c r="R6">
-        <v>-122.1449202256387</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
-        <v>174.1659345837773</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -2936,40 +2936,40 @@
         <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.477132224444759</v>
+        <v>1.473741695981223</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.89432665739345</v>
       </c>
       <c r="J2">
-        <v>1.504993721246253</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695297</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.9220324944339026</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
         <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115777</v>
+        <v>5.173976904115781</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>174.1659345853095</v>
+        <v>174.1659345853096</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3016,16 +3016,16 @@
         <v>0.9220324943451749</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166731</v>
+        <v>0.1964063472166736</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689188</v>
+        <v>0.8180121062689184</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114548</v>
+        <v>5.173976904114572</v>
       </c>
       <c r="R3">
-        <v>-122.1449202549968</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
         <v>174.1659345864975</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235479</v>
+        <v>0.9220324943235482</v>
       </c>
       <c r="O4">
-        <v>0.1964063472443386</v>
+        <v>0.1964063472443391</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966172</v>
+        <v>0.8180121062966164</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219877</v>
+        <v>5.173976906219908</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329783</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
         <v>174.1659345844574</v>
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163388</v>
+        <v>0.9220324943163393</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535605</v>
+        <v>0.1964063472535608</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058489</v>
       </c>
       <c r="Q5">
-        <v>5.17397690692166</v>
+        <v>5.173976906921678</v>
       </c>
       <c r="R5">
-        <v>-122.1449202256387</v>
+        <v>-122.1449202256391</v>
       </c>
       <c r="S5">
-        <v>174.1659345837773</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163387</v>
+        <v>0.9220324943163393</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535605</v>
+        <v>0.1964063472535609</v>
       </c>
       <c r="P6">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058489</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921656</v>
+        <v>5.173976906921684</v>
       </c>
       <c r="R6">
-        <v>-122.1449202256387</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
-        <v>174.1659345837773</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.263085436319232</v>
+        <v>5.264789776682897</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>334.2508172769598</v>
+        <v>334.3590574274127</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3306,43 +3306,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302728497187149</v>
+        <v>1.300136580403963</v>
       </c>
       <c r="I2">
-        <v>13.13596155317139</v>
+        <v>13.12326523947836</v>
       </c>
       <c r="J2">
-        <v>1.324394473163968</v>
+        <v>1.324394473164027</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6343631080284402</v>
+        <v>0.6342788358779728</v>
       </c>
       <c r="O2">
-        <v>1.100000023884802</v>
+        <v>1.100000023884798</v>
       </c>
       <c r="P2">
-        <v>0.6340631546307564</v>
+        <v>0.6339421142984771</v>
       </c>
       <c r="Q2">
-        <v>60.14453653710623</v>
+        <v>60.16164436518906</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>119.8710225215628</v>
+        <v>119.8558133377254</v>
       </c>
       <c r="T2">
-        <v>5.263085436319232</v>
+        <v>5.264789776682897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6343631081446011</v>
+        <v>0.6342788359942094</v>
       </c>
       <c r="O3">
-        <v>1.10000002388511</v>
+        <v>1.100000023885141</v>
       </c>
       <c r="P3">
-        <v>0.6340631545196401</v>
+        <v>0.6339421141873542</v>
       </c>
       <c r="Q3">
-        <v>60.14453654263053</v>
+        <v>60.16164437071073</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S3">
-        <v>119.8710225278279</v>
+        <v>119.8558133439931</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6343631081850831</v>
+        <v>0.6342788360347017</v>
       </c>
       <c r="O4">
-        <v>1.10000002388511</v>
+        <v>1.100000023885141</v>
       </c>
       <c r="P4">
-        <v>0.6340631545063775</v>
+        <v>0.6339421141740785</v>
       </c>
       <c r="Q4">
-        <v>60.14453654188323</v>
+        <v>60.16164436996188</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S4">
-        <v>119.871022531364</v>
+        <v>119.8558133475307</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6343631081985771</v>
+        <v>0.6342788360481992</v>
       </c>
       <c r="O5">
-        <v>1.10000002388511</v>
+        <v>1.100000023885141</v>
       </c>
       <c r="P5">
-        <v>0.6340631545019565</v>
+        <v>0.6339421141696531</v>
       </c>
       <c r="Q5">
-        <v>60.14453654163414</v>
+        <v>60.16164436971227</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S5">
-        <v>119.8710225325428</v>
+        <v>119.85581334871</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.634363108198577</v>
+        <v>0.6342788360481992</v>
       </c>
       <c r="O6">
-        <v>1.10000002388511</v>
+        <v>1.100000023885141</v>
       </c>
       <c r="P6">
-        <v>0.6340631545019566</v>
+        <v>0.6339421141696531</v>
       </c>
       <c r="Q6">
-        <v>60.14453654163412</v>
+        <v>60.16164436971227</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S6">
-        <v>119.8710225325428</v>
+        <v>119.85581334871</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.263085436319232</v>
+        <v>5.264789776682897</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>334.2508172769598</v>
+        <v>334.3590574274127</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3691,43 +3691,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302728497187149</v>
+        <v>1.300136580403963</v>
       </c>
       <c r="I2">
-        <v>13.13596155317139</v>
+        <v>13.12326523947836</v>
       </c>
       <c r="J2">
-        <v>1.324394473163968</v>
+        <v>1.324394473164027</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6343631080284402</v>
+        <v>0.6342788358779728</v>
       </c>
       <c r="O2">
-        <v>1.100000023884802</v>
+        <v>1.100000023884798</v>
       </c>
       <c r="P2">
-        <v>0.6340631546307564</v>
+        <v>0.6339421142984771</v>
       </c>
       <c r="Q2">
-        <v>60.14453653710623</v>
+        <v>60.16164436518906</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>119.8710225215628</v>
+        <v>119.8558133377254</v>
       </c>
       <c r="T2">
-        <v>5.263085436319232</v>
+        <v>5.264789776682897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6343631081446011</v>
+        <v>0.6342788359942094</v>
       </c>
       <c r="O3">
-        <v>1.10000002388511</v>
+        <v>1.100000023885141</v>
       </c>
       <c r="P3">
-        <v>0.6340631545196401</v>
+        <v>0.6339421141873542</v>
       </c>
       <c r="Q3">
-        <v>60.14453654263053</v>
+        <v>60.16164437071073</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S3">
-        <v>119.8710225278279</v>
+        <v>119.8558133439931</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6343631081850831</v>
+        <v>0.6342788360347017</v>
       </c>
       <c r="O4">
-        <v>1.10000002388511</v>
+        <v>1.100000023885141</v>
       </c>
       <c r="P4">
-        <v>0.6340631545063775</v>
+        <v>0.6339421141740785</v>
       </c>
       <c r="Q4">
-        <v>60.14453654188323</v>
+        <v>60.16164436996188</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S4">
-        <v>119.871022531364</v>
+        <v>119.8558133475307</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6343631081985771</v>
+        <v>0.6342788360481992</v>
       </c>
       <c r="O5">
-        <v>1.10000002388511</v>
+        <v>1.100000023885141</v>
       </c>
       <c r="P5">
-        <v>0.6340631545019565</v>
+        <v>0.6339421141696531</v>
       </c>
       <c r="Q5">
-        <v>60.14453654163414</v>
+        <v>60.16164436971227</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S5">
-        <v>119.8710225325428</v>
+        <v>119.85581334871</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.634363108198577</v>
+        <v>0.6342788360481992</v>
       </c>
       <c r="O6">
-        <v>1.10000002388511</v>
+        <v>1.100000023885141</v>
       </c>
       <c r="P6">
-        <v>0.6340631545019566</v>
+        <v>0.6339421141696531</v>
       </c>
       <c r="Q6">
-        <v>60.14453654163412</v>
+        <v>60.16164436971227</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S6">
-        <v>119.8710225325428</v>
+        <v>119.85581334871</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.624788622047594</v>
+        <v>3.625594058642694</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>230.2049955364138</v>
+        <v>230.2561476302634</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4076,43 +4076,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302728497187149</v>
+        <v>1.300136580403963</v>
       </c>
       <c r="I2">
-        <v>13.13596155317139</v>
+        <v>13.12326523947836</v>
       </c>
       <c r="J2">
-        <v>1.324394473163968</v>
+        <v>1.324394473164027</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6910524894908778</v>
+        <v>0.6909597583909405</v>
       </c>
       <c r="O2">
-        <v>1.100000023874118</v>
+        <v>1.100000023874113</v>
       </c>
       <c r="P2">
-        <v>0.8375887688093602</v>
+        <v>0.8375585834705179</v>
       </c>
       <c r="Q2">
-        <v>40.43226936571289</v>
+        <v>40.43497898842022</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.9031471294005</v>
+        <v>128.8967461279576</v>
       </c>
       <c r="T2">
-        <v>3.624788622047593</v>
+        <v>3.625594058642694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6910524895348136</v>
+        <v>0.690959758434911</v>
       </c>
       <c r="O3">
-        <v>1.100000023874323</v>
+        <v>1.100000023874353</v>
       </c>
       <c r="P3">
-        <v>0.8375887687294069</v>
+        <v>0.8375585833905812</v>
       </c>
       <c r="Q3">
-        <v>40.43226937226027</v>
+        <v>40.43497899496923</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S3">
-        <v>128.9031471322519</v>
+        <v>128.8967461308096</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6910524895612725</v>
+        <v>0.6909597584613757</v>
       </c>
       <c r="O4">
-        <v>1.100000023874323</v>
+        <v>1.100000023874353</v>
       </c>
       <c r="P4">
-        <v>0.837588768718229</v>
+        <v>0.8375585833793969</v>
       </c>
       <c r="Q4">
-        <v>40.43226937312882</v>
+        <v>40.43497899583805</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S4">
-        <v>128.9031471340421</v>
+        <v>128.8967461326001</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.691052489570092</v>
+        <v>0.6909597584701974</v>
       </c>
       <c r="O5">
-        <v>1.100000023874323</v>
+        <v>1.100000023874353</v>
       </c>
       <c r="P5">
-        <v>0.8375887687145029</v>
+        <v>0.8375585833756688</v>
       </c>
       <c r="Q5">
-        <v>40.43226937341834</v>
+        <v>40.43497899612766</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S5">
-        <v>128.9031471346387</v>
+        <v>128.896746133197</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6910524895700921</v>
+        <v>0.6909597584701974</v>
       </c>
       <c r="O6">
-        <v>1.100000023874323</v>
+        <v>1.100000023874353</v>
       </c>
       <c r="P6">
-        <v>0.8375887687145029</v>
+        <v>0.8375585833756688</v>
       </c>
       <c r="Q6">
-        <v>40.43226937341833</v>
+        <v>40.43497899612766</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S6">
-        <v>128.9031471346388</v>
+        <v>128.896746133197</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.624788622047594</v>
+        <v>3.625594058642694</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>230.2049955364138</v>
+        <v>230.2561476302634</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4612,43 +4612,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302728497187149</v>
+        <v>1.300136580403963</v>
       </c>
       <c r="I2">
-        <v>13.13596155317139</v>
+        <v>13.12326523947836</v>
       </c>
       <c r="J2">
-        <v>1.324394473163968</v>
+        <v>1.324394473164027</v>
       </c>
       <c r="K2">
         <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104345</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6910524894908778</v>
+        <v>0.6909597583909405</v>
       </c>
       <c r="O2">
-        <v>1.100000023874118</v>
+        <v>1.100000023874113</v>
       </c>
       <c r="P2">
-        <v>0.8375887688093602</v>
+        <v>0.8375585834705179</v>
       </c>
       <c r="Q2">
-        <v>40.43226936571289</v>
+        <v>40.43497898842022</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.9031471294005</v>
+        <v>128.8967461279576</v>
       </c>
       <c r="T2">
-        <v>3.624788622047593</v>
+        <v>3.625594058642694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6910524895348136</v>
+        <v>0.690959758434911</v>
       </c>
       <c r="O3">
-        <v>1.100000023874323</v>
+        <v>1.100000023874353</v>
       </c>
       <c r="P3">
-        <v>0.8375887687294069</v>
+        <v>0.8375585833905812</v>
       </c>
       <c r="Q3">
-        <v>40.43226937226027</v>
+        <v>40.43497899496923</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S3">
-        <v>128.9031471322519</v>
+        <v>128.8967461308096</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6910524895612725</v>
+        <v>0.6909597584613757</v>
       </c>
       <c r="O4">
-        <v>1.100000023874323</v>
+        <v>1.100000023874353</v>
       </c>
       <c r="P4">
-        <v>0.837588768718229</v>
+        <v>0.8375585833793969</v>
       </c>
       <c r="Q4">
-        <v>40.43226937312882</v>
+        <v>40.43497899583805</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S4">
-        <v>128.9031471340421</v>
+        <v>128.8967461326001</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.691052489570092</v>
+        <v>0.6909597584701974</v>
       </c>
       <c r="O5">
-        <v>1.100000023874323</v>
+        <v>1.100000023874353</v>
       </c>
       <c r="P5">
-        <v>0.8375887687145029</v>
+        <v>0.8375585833756688</v>
       </c>
       <c r="Q5">
-        <v>40.43226937341834</v>
+        <v>40.43497899612766</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S5">
-        <v>128.9031471346387</v>
+        <v>128.896746133197</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6910524895700921</v>
+        <v>0.6909597584701974</v>
       </c>
       <c r="O6">
-        <v>1.100000023874323</v>
+        <v>1.100000023874353</v>
       </c>
       <c r="P6">
-        <v>0.8375887687145029</v>
+        <v>0.8375585833756688</v>
       </c>
       <c r="Q6">
-        <v>40.43226937341833</v>
+        <v>40.43497899612766</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S6">
-        <v>128.9031471346388</v>
+        <v>128.896746133197</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.212032512893233</v>
+        <v>4.213578167163576</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>267.49999156698</v>
+        <v>267.5981537969763</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477132224444822</v>
+        <v>1.473741695981288</v>
       </c>
       <c r="I2">
-        <v>14.91066385932531</v>
+        <v>14.8943266573922</v>
       </c>
       <c r="J2">
-        <v>1.504993722648783</v>
+        <v>1.504993722648775</v>
       </c>
       <c r="K2">
         <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695423</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
         <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5766042955957442</v>
+        <v>0.5765181387213186</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962972</v>
+        <v>0.9999999999962976</v>
       </c>
       <c r="P2">
-        <v>0.5762963374228092</v>
+        <v>0.5761710352563979</v>
       </c>
       <c r="Q2">
-        <v>60.16407642166423</v>
+        <v>60.18351162782606</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.8534853827561</v>
+        <v>119.8362714641732</v>
       </c>
       <c r="T2">
-        <v>4.212032512893232</v>
+        <v>4.213578167163577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5766042957038834</v>
+        <v>0.5765181388295068</v>
       </c>
       <c r="O3">
         <v>0.9999999999962974</v>
       </c>
       <c r="P3">
-        <v>0.5762963373188859</v>
+        <v>0.5761710351524314</v>
       </c>
       <c r="Q3">
-        <v>60.16407642734417</v>
+        <v>60.18351163350488</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S3">
-        <v>119.8534853891696</v>
+        <v>119.8362714705877</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5766042957520621</v>
+        <v>0.5765181388776927</v>
       </c>
       <c r="O4">
         <v>0.9999999999962974</v>
       </c>
       <c r="P4">
-        <v>0.5762963373181996</v>
+        <v>0.5761710351517302</v>
       </c>
       <c r="Q4">
-        <v>60.16407642462444</v>
+        <v>60.18351163078194</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S4">
-        <v>119.8534853946781</v>
+        <v>119.8362714760995</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5766042957681218</v>
+        <v>0.5765181388937547</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962976</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P5">
-        <v>0.5762963373179707</v>
+        <v>0.5761710351514965</v>
       </c>
       <c r="Q5">
-        <v>60.16407642371789</v>
+        <v>60.1835116298743</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S5">
-        <v>119.8534853965143</v>
+        <v>119.8362714779367</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5766042957681218</v>
+        <v>0.5765181388937548</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962975</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P6">
-        <v>0.5762963373179708</v>
+        <v>0.5761710351514965</v>
       </c>
       <c r="Q6">
-        <v>60.16407642371787</v>
+        <v>60.1835116298743</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S6">
-        <v>119.8534853965143</v>
+        <v>119.8362714779367</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.212032512893233</v>
+        <v>4.213578167163576</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>267.49999156698</v>
+        <v>267.5981537969763</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5382,43 +5382,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477132224444822</v>
+        <v>1.473741695981288</v>
       </c>
       <c r="I2">
-        <v>14.91066385932531</v>
+        <v>14.8943266573922</v>
       </c>
       <c r="J2">
-        <v>1.504993722648783</v>
+        <v>1.504993722648775</v>
       </c>
       <c r="K2">
         <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695423</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
         <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5766042955957442</v>
+        <v>0.5765181387213186</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962972</v>
+        <v>0.9999999999962976</v>
       </c>
       <c r="P2">
-        <v>0.5762963374228092</v>
+        <v>0.5761710352563979</v>
       </c>
       <c r="Q2">
-        <v>60.16407642166423</v>
+        <v>60.18351162782606</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.8534853827561</v>
+        <v>119.8362714641732</v>
       </c>
       <c r="T2">
-        <v>4.212032512893232</v>
+        <v>4.213578167163577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5766042957038834</v>
+        <v>0.5765181388295068</v>
       </c>
       <c r="O3">
         <v>0.9999999999962974</v>
       </c>
       <c r="P3">
-        <v>0.5762963373188859</v>
+        <v>0.5761710351524314</v>
       </c>
       <c r="Q3">
-        <v>60.16407642734417</v>
+        <v>60.18351163350488</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S3">
-        <v>119.8534853891696</v>
+        <v>119.8362714705877</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5766042957520621</v>
+        <v>0.5765181388776927</v>
       </c>
       <c r="O4">
         <v>0.9999999999962974</v>
       </c>
       <c r="P4">
-        <v>0.5762963373181996</v>
+        <v>0.5761710351517302</v>
       </c>
       <c r="Q4">
-        <v>60.16407642462444</v>
+        <v>60.18351163078194</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S4">
-        <v>119.8534853946781</v>
+        <v>119.8362714760995</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5766042957681218</v>
+        <v>0.5765181388937547</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962976</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P5">
-        <v>0.5762963373179707</v>
+        <v>0.5761710351514965</v>
       </c>
       <c r="Q5">
-        <v>60.16407642371789</v>
+        <v>60.1835116298743</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S5">
-        <v>119.8534853965143</v>
+        <v>119.8362714779367</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5766042957681218</v>
+        <v>0.5765181388937548</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962975</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P6">
-        <v>0.5762963373179708</v>
+        <v>0.5761710351514965</v>
       </c>
       <c r="Q6">
-        <v>60.16407642371787</v>
+        <v>60.1835116298743</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S6">
-        <v>119.8534853965143</v>
+        <v>119.8362714779367</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.019649548546143</v>
+        <v>3.020443521532481</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>191.7735027682592</v>
+        <v>191.8239268251723</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5767,43 +5767,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477132224444822</v>
+        <v>1.473741695981288</v>
       </c>
       <c r="I2">
-        <v>14.91066385932531</v>
+        <v>14.8943266573922</v>
       </c>
       <c r="J2">
-        <v>1.504993722648783</v>
+        <v>1.504993722648775</v>
       </c>
       <c r="K2">
         <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695423</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
         <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.617567367050801</v>
+        <v>0.6174664686425931</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908364</v>
+        <v>0.9999999999908332</v>
       </c>
       <c r="P2">
-        <v>0.7469940856229434</v>
+        <v>0.746957441066337</v>
       </c>
       <c r="Q2">
-        <v>41.8082071581654</v>
+        <v>41.8122318867665</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.0415939455684</v>
+        <v>128.0336525197033</v>
       </c>
       <c r="T2">
-        <v>3.019649548546142</v>
+        <v>3.020443521532481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6175673670965807</v>
+        <v>0.6174664686883845</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908151</v>
+        <v>0.9999999999908177</v>
       </c>
       <c r="P3">
-        <v>0.7469940855452977</v>
+        <v>0.7469574409886768</v>
       </c>
       <c r="Q3">
-        <v>41.80820716510355</v>
+        <v>41.81223189370718</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S3">
-        <v>128.0415939486963</v>
+        <v>128.0336525228313</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6175673671362983</v>
+        <v>0.6174664687281126</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908151</v>
+        <v>0.9999999999908177</v>
       </c>
       <c r="P4">
-        <v>0.7469940855419607</v>
+        <v>0.7469574409853323</v>
       </c>
       <c r="Q4">
-        <v>41.80820716517122</v>
+        <v>41.81223189377473</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S4">
-        <v>128.0415939517325</v>
+        <v>128.0336525258684</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6175673671495376</v>
+        <v>0.6174664687413554</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908152</v>
+        <v>0.9999999999908177</v>
       </c>
       <c r="P5">
-        <v>0.7469940855408482</v>
+        <v>0.7469574409842172</v>
       </c>
       <c r="Q5">
-        <v>41.80820716519377</v>
+        <v>41.81223189379725</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S5">
-        <v>128.0415939527446</v>
+        <v>128.0336525268807</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6175673671495376</v>
+        <v>0.6174664687413554</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908155</v>
+        <v>0.9999999999908177</v>
       </c>
       <c r="P6">
-        <v>0.7469940855408485</v>
+        <v>0.7469574409842173</v>
       </c>
       <c r="Q6">
-        <v>41.80820716519377</v>
+        <v>41.81223189379725</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S6">
-        <v>128.0415939527446</v>
+        <v>128.0336525268807</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.019649548546143</v>
+        <v>3.020443521532481</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>191.7735027682592</v>
+        <v>191.8239268251723</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6152,43 +6152,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.477132224444822</v>
+        <v>1.473741695981288</v>
       </c>
       <c r="I2">
-        <v>14.91066385932531</v>
+        <v>14.8943266573922</v>
       </c>
       <c r="J2">
-        <v>1.504993722648783</v>
+        <v>1.504993722648775</v>
       </c>
       <c r="K2">
         <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695423</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
         <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.617567367050801</v>
+        <v>0.6174664686425931</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908364</v>
+        <v>0.9999999999908332</v>
       </c>
       <c r="P2">
-        <v>0.7469940856229434</v>
+        <v>0.746957441066337</v>
       </c>
       <c r="Q2">
-        <v>41.8082071581654</v>
+        <v>41.8122318867665</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.0415939455684</v>
+        <v>128.0336525197033</v>
       </c>
       <c r="T2">
-        <v>3.019649548546142</v>
+        <v>3.020443521532481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6175673670965807</v>
+        <v>0.6174664686883845</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908151</v>
+        <v>0.9999999999908177</v>
       </c>
       <c r="P3">
-        <v>0.7469940855452977</v>
+        <v>0.7469574409886768</v>
       </c>
       <c r="Q3">
-        <v>41.80820716510355</v>
+        <v>41.81223189370718</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S3">
-        <v>128.0415939486963</v>
+        <v>128.0336525228313</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6175673671362983</v>
+        <v>0.6174664687281126</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908151</v>
+        <v>0.9999999999908177</v>
       </c>
       <c r="P4">
-        <v>0.7469940855419607</v>
+        <v>0.7469574409853323</v>
       </c>
       <c r="Q4">
-        <v>41.80820716517122</v>
+        <v>41.81223189377473</v>
       </c>
       <c r="R4">
-        <v>-89.9999999999965</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S4">
-        <v>128.0415939517325</v>
+        <v>128.0336525258684</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6175673671495376</v>
+        <v>0.6174664687413554</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908152</v>
+        <v>0.9999999999908177</v>
       </c>
       <c r="P5">
-        <v>0.7469940855408482</v>
+        <v>0.7469574409842172</v>
       </c>
       <c r="Q5">
-        <v>41.80820716519377</v>
+        <v>41.81223189379725</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S5">
-        <v>128.0415939527446</v>
+        <v>128.0336525268807</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6175673671495376</v>
+        <v>0.6174664687413554</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908155</v>
+        <v>0.9999999999908177</v>
       </c>
       <c r="P6">
-        <v>0.7469940855408485</v>
+        <v>0.7469574409842173</v>
       </c>
       <c r="Q6">
-        <v>41.80820716519377</v>
+        <v>41.81223189379725</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999652</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S6">
-        <v>128.0415939527446</v>
+        <v>128.0336525268807</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6522,31 +6522,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.254654037497586</v>
+        <v>5.255362075096</v>
       </c>
       <c r="D2">
-        <v>5.257139832776041</v>
+        <v>5.258153487186398</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.7153515352344</v>
+        <v>333.7603179620189</v>
       </c>
       <c r="G2">
-        <v>333.8732207382827</v>
+        <v>333.937596439418</v>
       </c>
       <c r="H2">
-        <v>1.302728497187094</v>
+        <v>1.300136580403904</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.12326523947946</v>
       </c>
       <c r="J2">
-        <v>1.324394474185788</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
         <v>1.324394474104227</v>
@@ -6555,25 +6555,25 @@
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6333325747224057</v>
+        <v>0.6331251668600069</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6333325747384951</v>
+        <v>0.633125166876107</v>
       </c>
       <c r="Q2">
-        <v>0.01573189450820715</v>
+        <v>0.01767473854845998</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9842681045647</v>
+        <v>-179.9823252605254</v>
       </c>
       <c r="T2">
-        <v>5.277611115057052</v>
+        <v>5.281039651603556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.633332574611267</v>
+        <v>0.6331251667488516</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.633332574853699</v>
+        <v>0.6331251669912811</v>
       </c>
       <c r="Q3">
-        <v>0.01573190079083003</v>
+        <v>0.01767474483663739</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9842680989598</v>
+        <v>-179.9823252549125</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6333325745982129</v>
+        <v>0.6331251667358083</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6333325748941747</v>
+        <v>0.6331251670317665</v>
       </c>
       <c r="Q4">
-        <v>0.01573190433107222</v>
+        <v>0.01767474837889358</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.98426809969</v>
+        <v>-179.9823252556423</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6333325745938616</v>
+        <v>0.6331251667314607</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6333325749076666</v>
+        <v>0.6331251670452613</v>
       </c>
       <c r="Q5">
-        <v>0.01573190551114025</v>
+        <v>0.01767474955962816</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9842680999334</v>
+        <v>-179.9823252558855</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6333325745938616</v>
+        <v>0.6331251667314607</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6333325749076666</v>
+        <v>0.6331251670452613</v>
       </c>
       <c r="Q6">
-        <v>0.01573190551115441</v>
+        <v>0.01767474955963369</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9842680999334</v>
+        <v>-179.9823252558855</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6907,31 +6907,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.254654037497586</v>
+        <v>5.255362075096</v>
       </c>
       <c r="D2">
-        <v>5.257139832776041</v>
+        <v>5.258153487186398</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.7153515352344</v>
+        <v>333.7603179620189</v>
       </c>
       <c r="G2">
-        <v>333.8732207382827</v>
+        <v>333.937596439418</v>
       </c>
       <c r="H2">
-        <v>1.302728497187094</v>
+        <v>1.300136580403904</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.12326523947946</v>
       </c>
       <c r="J2">
-        <v>1.324394474185788</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
         <v>1.324394474104227</v>
@@ -6940,25 +6940,25 @@
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6333325747224057</v>
+        <v>0.6331251668600069</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6333325747384951</v>
+        <v>0.633125166876107</v>
       </c>
       <c r="Q2">
-        <v>0.01573189450820715</v>
+        <v>0.01767473854845998</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9842681045647</v>
+        <v>-179.9823252605254</v>
       </c>
       <c r="T2">
-        <v>5.277611115057052</v>
+        <v>5.281039651603556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.633332574611267</v>
+        <v>0.6331251667488516</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.633332574853699</v>
+        <v>0.6331251669912811</v>
       </c>
       <c r="Q3">
-        <v>0.01573190079083003</v>
+        <v>0.01767474483663739</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9842680989598</v>
+        <v>-179.9823252549125</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6333325745982129</v>
+        <v>0.6331251667358083</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6333325748941747</v>
+        <v>0.6331251670317665</v>
       </c>
       <c r="Q4">
-        <v>0.01573190433107222</v>
+        <v>0.01767474837889358</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.98426809969</v>
+        <v>-179.9823252556423</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6333325745938616</v>
+        <v>0.6331251667314607</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6333325749076666</v>
+        <v>0.6331251670452613</v>
       </c>
       <c r="Q5">
-        <v>0.01573190551114025</v>
+        <v>0.01767474955962816</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9842680999334</v>
+        <v>-179.9823252558855</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6333325745938616</v>
+        <v>0.6331251667314607</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6333325749076666</v>
+        <v>0.6331251670452613</v>
       </c>
       <c r="Q6">
-        <v>0.01573190551115441</v>
+        <v>0.01767474955963369</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9842680999334</v>
+        <v>-179.9823252558855</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7292,31 +7292,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.622196780720852</v>
+        <v>3.622696074396352</v>
       </c>
       <c r="D2">
-        <v>3.620574524552952</v>
+        <v>3.620886248043324</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.0403915047678</v>
+        <v>230.0721009119428</v>
       </c>
       <c r="G2">
-        <v>229.9373644008923</v>
+        <v>229.957161501411</v>
       </c>
       <c r="H2">
-        <v>1.302728497187094</v>
+        <v>1.300136580403904</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.12326523947946</v>
       </c>
       <c r="J2">
-        <v>1.324394474185788</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
         <v>1.324394474104227</v>
@@ -7325,25 +7325,25 @@
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.8370263417153535</v>
+        <v>0.8369298226563672</v>
       </c>
       <c r="O2">
-        <v>0.4028253111899537</v>
+        <v>0.4028253111899612</v>
       </c>
       <c r="P2">
-        <v>0.6912076800540018</v>
+        <v>0.6911328303565015</v>
       </c>
       <c r="Q2">
-        <v>8.94533282429412</v>
+        <v>8.94391543168752</v>
       </c>
       <c r="R2">
-        <v>-115.880758596451</v>
+        <v>-115.88075859645</v>
       </c>
       <c r="S2">
-        <v>160.3642634360259</v>
+        <v>160.3589282313006</v>
       </c>
       <c r="T2">
-        <v>3.631642441896803</v>
+        <v>3.633259714224315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.837026341635178</v>
+        <v>0.8369298225761627</v>
       </c>
       <c r="O3">
-        <v>0.4028253110950973</v>
+        <v>0.4028253110950772</v>
       </c>
       <c r="P3">
-        <v>0.6912076800972685</v>
+        <v>0.6911328303997096</v>
       </c>
       <c r="Q3">
-        <v>8.945332827149048</v>
+        <v>8.943915434543552</v>
       </c>
       <c r="R3">
-        <v>-115.8807585788079</v>
+        <v>-115.8807585788102</v>
       </c>
       <c r="S3">
-        <v>160.3642634425801</v>
+        <v>160.3589282378581</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.837026341624074</v>
+        <v>0.8369298225650605</v>
       </c>
       <c r="O4">
-        <v>0.4028253110969017</v>
+        <v>0.4028253110968812</v>
       </c>
       <c r="P4">
-        <v>0.6912076801236686</v>
+        <v>0.6911328304261086</v>
       </c>
       <c r="Q4">
-        <v>8.945332828941044</v>
+        <v>8.943915436336113</v>
       </c>
       <c r="R4">
-        <v>-115.8807585718152</v>
+        <v>-115.8807585718175</v>
       </c>
       <c r="S4">
-        <v>160.3642634434534</v>
+        <v>160.3589282387322</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8370263416203724</v>
+        <v>0.8369298225613598</v>
       </c>
       <c r="O5">
-        <v>0.402825311097503</v>
+        <v>0.4028253110974825</v>
       </c>
       <c r="P5">
-        <v>0.6912076801324686</v>
+        <v>0.6911328304349081</v>
       </c>
       <c r="Q5">
-        <v>8.945332829538376</v>
+        <v>8.943915436933631</v>
       </c>
       <c r="R5">
-        <v>-115.8807585694843</v>
+        <v>-115.8807585694866</v>
       </c>
       <c r="S5">
-        <v>160.3642634437445</v>
+        <v>160.3589282390236</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8370263416203724</v>
+        <v>0.8369298225613598</v>
       </c>
       <c r="O6">
-        <v>0.402825311097503</v>
+        <v>0.4028253110974825</v>
       </c>
       <c r="P6">
-        <v>0.6912076801324684</v>
+        <v>0.6911328304349081</v>
       </c>
       <c r="Q6">
-        <v>8.945332829538383</v>
+        <v>8.943915436933633</v>
       </c>
       <c r="R6">
-        <v>-115.8807585694843</v>
+        <v>-115.8807585694866</v>
       </c>
       <c r="S6">
-        <v>160.3642634437445</v>
+        <v>160.3589282390236</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7677,31 +7677,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.622196780720852</v>
+        <v>3.622696074396352</v>
       </c>
       <c r="D2">
-        <v>3.620574524552952</v>
+        <v>3.620886248043324</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.0403915047678</v>
+        <v>230.0721009119428</v>
       </c>
       <c r="G2">
-        <v>229.9373644008923</v>
+        <v>229.957161501411</v>
       </c>
       <c r="H2">
-        <v>1.302728497187094</v>
+        <v>1.300136580403904</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.12326523947946</v>
       </c>
       <c r="J2">
-        <v>1.324394474185788</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
         <v>1.324394474104227</v>
@@ -7710,25 +7710,25 @@
         <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.8370263417153535</v>
+        <v>0.8369298226563672</v>
       </c>
       <c r="O2">
-        <v>0.4028253111899537</v>
+        <v>0.4028253111899612</v>
       </c>
       <c r="P2">
-        <v>0.6912076800540018</v>
+        <v>0.6911328303565015</v>
       </c>
       <c r="Q2">
-        <v>8.94533282429412</v>
+        <v>8.94391543168752</v>
       </c>
       <c r="R2">
-        <v>-115.880758596451</v>
+        <v>-115.88075859645</v>
       </c>
       <c r="S2">
-        <v>160.3642634360259</v>
+        <v>160.3589282313006</v>
       </c>
       <c r="T2">
-        <v>3.631642441896803</v>
+        <v>3.633259714224315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.837026341635178</v>
+        <v>0.8369298225761627</v>
       </c>
       <c r="O3">
-        <v>0.4028253110950973</v>
+        <v>0.4028253110950772</v>
       </c>
       <c r="P3">
-        <v>0.6912076800972685</v>
+        <v>0.6911328303997096</v>
       </c>
       <c r="Q3">
-        <v>8.945332827149048</v>
+        <v>8.943915434543552</v>
       </c>
       <c r="R3">
-        <v>-115.8807585788079</v>
+        <v>-115.8807585788102</v>
       </c>
       <c r="S3">
-        <v>160.3642634425801</v>
+        <v>160.3589282378581</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.837026341624074</v>
+        <v>0.8369298225650605</v>
       </c>
       <c r="O4">
-        <v>0.4028253110969017</v>
+        <v>0.4028253110968812</v>
       </c>
       <c r="P4">
-        <v>0.6912076801236686</v>
+        <v>0.6911328304261086</v>
       </c>
       <c r="Q4">
-        <v>8.945332828941044</v>
+        <v>8.943915436336113</v>
       </c>
       <c r="R4">
-        <v>-115.8807585718152</v>
+        <v>-115.8807585718175</v>
       </c>
       <c r="S4">
-        <v>160.3642634434534</v>
+        <v>160.3589282387322</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8370263416203724</v>
+        <v>0.8369298225613598</v>
       </c>
       <c r="O5">
-        <v>0.402825311097503</v>
+        <v>0.4028253110974825</v>
       </c>
       <c r="P5">
-        <v>0.6912076801324686</v>
+        <v>0.6911328304349081</v>
       </c>
       <c r="Q5">
-        <v>8.945332829538376</v>
+        <v>8.943915436933631</v>
       </c>
       <c r="R5">
-        <v>-115.8807585694843</v>
+        <v>-115.8807585694866</v>
       </c>
       <c r="S5">
-        <v>160.3642634437445</v>
+        <v>160.3589282390236</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8370263416203724</v>
+        <v>0.8369298225613598</v>
       </c>
       <c r="O6">
-        <v>0.402825311097503</v>
+        <v>0.4028253110974825</v>
       </c>
       <c r="P6">
-        <v>0.6912076801324684</v>
+        <v>0.6911328304349081</v>
       </c>
       <c r="Q6">
-        <v>8.945332829538383</v>
+        <v>8.943915436933633</v>
       </c>
       <c r="R6">
-        <v>-115.8807585694843</v>
+        <v>-115.8807585694866</v>
       </c>
       <c r="S6">
-        <v>160.3642634437445</v>
+        <v>160.3589282390236</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8062,58 +8062,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.204384259627431</v>
+        <v>4.205022763012964</v>
       </c>
       <c r="D2">
-        <v>4.206630976450865</v>
+        <v>4.207556000651891</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>267.0142622479775</v>
+        <v>267.0548126591442</v>
       </c>
       <c r="G2">
-        <v>267.1569479298857</v>
+        <v>267.2156948567474</v>
       </c>
       <c r="H2">
-        <v>1.477132224444759</v>
+        <v>1.473741695981223</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.89432665739345</v>
       </c>
       <c r="J2">
-        <v>1.504993721246253</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695297</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5755405427385629</v>
+        <v>0.5753266316635876</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5755405427175679</v>
+        <v>0.5753266316425762</v>
       </c>
       <c r="Q2">
-        <v>0.01778356540110201</v>
+        <v>0.02006266409748343</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9822164351396</v>
+        <v>-179.9799373364434</v>
       </c>
       <c r="T2">
-        <v>4.225235692848791</v>
+        <v>4.228347452965941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5755405426351791</v>
+        <v>0.5753266315602186</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5755405428252582</v>
+        <v>0.5753266317502679</v>
       </c>
       <c r="Q3">
-        <v>0.01778357186730047</v>
+        <v>0.02006267057199694</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9822164293983</v>
+        <v>-179.9799373306948</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5755405426347943</v>
+        <v>0.5753266315598544</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5755405428735227</v>
+        <v>0.5753266317985496</v>
       </c>
       <c r="Q4">
-        <v>0.01778357737331542</v>
+        <v>0.02006267608091889</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9822164320937</v>
+        <v>-179.9799373333905</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5755405426346658</v>
+        <v>0.575326631559733</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5755405428896109</v>
+        <v>0.5753266318146436</v>
       </c>
       <c r="Q5">
-        <v>0.01778357920866468</v>
+        <v>0.02006267791723891</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9822164329921</v>
+        <v>-179.979937334289</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5755405426346659</v>
+        <v>0.575326631559733</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5755405428896108</v>
+        <v>0.5753266318146436</v>
       </c>
       <c r="Q6">
-        <v>0.01778357920866423</v>
+        <v>0.02006267791724572</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9822164329921</v>
+        <v>-179.979937334289</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8598,58 +8598,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.204384259627431</v>
+        <v>4.205022763012964</v>
       </c>
       <c r="D2">
-        <v>4.206630976450865</v>
+        <v>4.207556000651891</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>267.0142622479775</v>
+        <v>267.0548126591442</v>
       </c>
       <c r="G2">
-        <v>267.1569479298857</v>
+        <v>267.2156948567474</v>
       </c>
       <c r="H2">
-        <v>1.477132224444759</v>
+        <v>1.473741695981223</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.89432665739345</v>
       </c>
       <c r="J2">
-        <v>1.504993721246253</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695297</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5755405427385629</v>
+        <v>0.5753266316635876</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5755405427175679</v>
+        <v>0.5753266316425762</v>
       </c>
       <c r="Q2">
-        <v>0.01778356540110201</v>
+        <v>0.02006266409748343</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9822164351396</v>
+        <v>-179.9799373364434</v>
       </c>
       <c r="T2">
-        <v>4.225235692848791</v>
+        <v>4.228347452965941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5755405426351791</v>
+        <v>0.5753266315602186</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5755405428252582</v>
+        <v>0.5753266317502679</v>
       </c>
       <c r="Q3">
-        <v>0.01778357186730047</v>
+        <v>0.02006267057199694</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9822164293983</v>
+        <v>-179.9799373306948</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5755405426347943</v>
+        <v>0.5753266315598544</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5755405428735227</v>
+        <v>0.5753266317985496</v>
       </c>
       <c r="Q4">
-        <v>0.01778357737331542</v>
+        <v>0.02006267608091889</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9822164320937</v>
+        <v>-179.9799373333905</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5755405426346658</v>
+        <v>0.575326631559733</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5755405428896109</v>
+        <v>0.5753266318146436</v>
       </c>
       <c r="Q5">
-        <v>0.01778357920866468</v>
+        <v>0.02006267791723891</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9822164329921</v>
+        <v>-179.979937334289</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5755405426346659</v>
+        <v>0.575326631559733</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5755405428896108</v>
+        <v>0.5753266318146436</v>
       </c>
       <c r="Q6">
-        <v>0.01778357920866423</v>
+        <v>0.02006267791724572</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9822164329921</v>
+        <v>-179.979937334289</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8983,58 +8983,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.016979709350075</v>
+        <v>3.017456219293399</v>
       </c>
       <c r="D2">
-        <v>3.015609147514251</v>
+        <v>3.015933157317141</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>191.6039452066196</v>
+        <v>191.634207652465</v>
       </c>
       <c r="G2">
-        <v>191.5169028396856</v>
+        <v>191.5374802258466</v>
       </c>
       <c r="H2">
-        <v>1.477132224444759</v>
+        <v>1.473741695981223</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.89432665739345</v>
       </c>
       <c r="J2">
-        <v>1.504993721246253</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695297</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7463818174272807</v>
+        <v>0.7462733101074626</v>
       </c>
       <c r="O2">
-        <v>0.33545908316898</v>
+        <v>0.3354590831689825</v>
       </c>
       <c r="P2">
-        <v>0.6176823562862079</v>
+        <v>0.617594064617927</v>
       </c>
       <c r="Q2">
-        <v>8.095655125584289</v>
+        <v>8.094113681634461</v>
       </c>
       <c r="R2">
-        <v>-117.0248837768021</v>
+        <v>-117.0248837768028</v>
       </c>
       <c r="S2">
-        <v>161.7222372450655</v>
+        <v>161.7160967489815</v>
       </c>
       <c r="T2">
-        <v>3.026415941145417</v>
+        <v>3.028011384379296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7463818173498662</v>
+        <v>0.7462733100300448</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770982</v>
+        <v>0.3354590830770996</v>
       </c>
       <c r="P3">
-        <v>0.6176823563317212</v>
+        <v>0.6175940646634076</v>
       </c>
       <c r="Q3">
-        <v>8.095655128731229</v>
+        <v>8.094113684783762</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562193</v>
+        <v>-117.0248837562219</v>
       </c>
       <c r="S3">
-        <v>161.7222372520062</v>
+        <v>161.7160967559261</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7463818173466514</v>
+        <v>0.7462733100268368</v>
       </c>
       <c r="O4">
-        <v>0.3354590831007244</v>
+        <v>0.3354590831007256</v>
       </c>
       <c r="P4">
-        <v>0.6176823563713835</v>
+        <v>0.6175940647030733</v>
       </c>
       <c r="Q4">
-        <v>8.095655131767939</v>
+        <v>8.094113687821453</v>
       </c>
       <c r="R4">
-        <v>-117.02488374521</v>
+        <v>-117.0248837452126</v>
       </c>
       <c r="S4">
-        <v>161.722237252086</v>
+        <v>161.7160967560072</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7463818173455797</v>
+        <v>0.7462733100257676</v>
       </c>
       <c r="O5">
-        <v>0.3354590831085998</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P5">
-        <v>0.617682356384604</v>
+        <v>0.6175940647162953</v>
       </c>
       <c r="Q5">
-        <v>8.09565513278018</v>
+        <v>8.094113688834009</v>
       </c>
       <c r="R5">
-        <v>-117.0248837415403</v>
+        <v>-117.0248837415429</v>
       </c>
       <c r="S5">
-        <v>161.7222372521126</v>
+        <v>161.7160967560342</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7463818173455795</v>
+        <v>0.7462733100257671</v>
       </c>
       <c r="O6">
-        <v>0.3354590831085998</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P6">
-        <v>0.6176823563846039</v>
+        <v>0.6175940647162953</v>
       </c>
       <c r="Q6">
-        <v>8.095655132780184</v>
+        <v>8.094113688834017</v>
       </c>
       <c r="R6">
-        <v>-117.0248837415403</v>
+        <v>-117.0248837415429</v>
       </c>
       <c r="S6">
-        <v>161.7222372521125</v>
+        <v>161.7160967560342</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9368,58 +9368,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.016979709350075</v>
+        <v>3.017456219293399</v>
       </c>
       <c r="D2">
-        <v>3.015609147514251</v>
+        <v>3.015933157317141</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>191.6039452066196</v>
+        <v>191.634207652465</v>
       </c>
       <c r="G2">
-        <v>191.5169028396856</v>
+        <v>191.5374802258466</v>
       </c>
       <c r="H2">
-        <v>1.477132224444759</v>
+        <v>1.473741695981223</v>
       </c>
       <c r="I2">
-        <v>14.91066385932656</v>
+        <v>14.89432665739345</v>
       </c>
       <c r="J2">
-        <v>1.504993721246253</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697324839</v>
+        <v>15.04993697324841</v>
       </c>
       <c r="L2">
-        <v>1.504993720695299</v>
+        <v>1.504993720695297</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7463818174272807</v>
+        <v>0.7462733101074626</v>
       </c>
       <c r="O2">
-        <v>0.33545908316898</v>
+        <v>0.3354590831689825</v>
       </c>
       <c r="P2">
-        <v>0.6176823562862079</v>
+        <v>0.617594064617927</v>
       </c>
       <c r="Q2">
-        <v>8.095655125584289</v>
+        <v>8.094113681634461</v>
       </c>
       <c r="R2">
-        <v>-117.0248837768021</v>
+        <v>-117.0248837768028</v>
       </c>
       <c r="S2">
-        <v>161.7222372450655</v>
+        <v>161.7160967489815</v>
       </c>
       <c r="T2">
-        <v>3.026415941145417</v>
+        <v>3.028011384379296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7463818173498662</v>
+        <v>0.7462733100300448</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770982</v>
+        <v>0.3354590830770996</v>
       </c>
       <c r="P3">
-        <v>0.6176823563317212</v>
+        <v>0.6175940646634076</v>
       </c>
       <c r="Q3">
-        <v>8.095655128731229</v>
+        <v>8.094113684783762</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562193</v>
+        <v>-117.0248837562219</v>
       </c>
       <c r="S3">
-        <v>161.7222372520062</v>
+        <v>161.7160967559261</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7463818173466514</v>
+        <v>0.7462733100268368</v>
       </c>
       <c r="O4">
-        <v>0.3354590831007244</v>
+        <v>0.3354590831007256</v>
       </c>
       <c r="P4">
-        <v>0.6176823563713835</v>
+        <v>0.6175940647030733</v>
       </c>
       <c r="Q4">
-        <v>8.095655131767939</v>
+        <v>8.094113687821453</v>
       </c>
       <c r="R4">
-        <v>-117.02488374521</v>
+        <v>-117.0248837452126</v>
       </c>
       <c r="S4">
-        <v>161.722237252086</v>
+        <v>161.7160967560072</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7463818173455797</v>
+        <v>0.7462733100257676</v>
       </c>
       <c r="O5">
-        <v>0.3354590831085998</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P5">
-        <v>0.617682356384604</v>
+        <v>0.6175940647162953</v>
       </c>
       <c r="Q5">
-        <v>8.09565513278018</v>
+        <v>8.094113688834009</v>
       </c>
       <c r="R5">
-        <v>-117.0248837415403</v>
+        <v>-117.0248837415429</v>
       </c>
       <c r="S5">
-        <v>161.7222372521126</v>
+        <v>161.7160967560342</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7463818173455795</v>
+        <v>0.7462733100257671</v>
       </c>
       <c r="O6">
-        <v>0.3354590831085998</v>
+        <v>0.335459083108601</v>
       </c>
       <c r="P6">
-        <v>0.6176823563846039</v>
+        <v>0.6175940647162953</v>
       </c>
       <c r="Q6">
-        <v>8.095655132780184</v>
+        <v>8.094113688834017</v>
       </c>
       <c r="R6">
-        <v>-117.0248837415403</v>
+        <v>-117.0248837415429</v>
       </c>
       <c r="S6">
-        <v>161.7222372521125</v>
+        <v>161.7160967560342</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10520,16 +10520,16 @@
         <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.302728497187094</v>
+        <v>1.300136580403904</v>
       </c>
       <c r="I2">
-        <v>13.1359615531725</v>
+        <v>13.12326523947946</v>
       </c>
       <c r="J2">
-        <v>1.324394474185788</v>
+        <v>1.324394474185756</v>
       </c>
       <c r="K2">
-        <v>13.24394453578182</v>
+        <v>13.24394453578177</v>
       </c>
       <c r="L2">
         <v>1.324394474104227</v>
@@ -10544,10 +10544,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.691552301570298E-11</v>
+        <v>-8.693001799345935E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -10603,16 +10603,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965608</v>
+        <v>0.9526279648965611</v>
       </c>
       <c r="Q3">
-        <v>1.458424842703151E-10</v>
+        <v>1.457758332598775E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998456</v>
+        <v>179.9999999998457</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.952627964640425</v>
+        <v>0.9526279646404248</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0.9526279649233326</v>
       </c>
       <c r="Q4">
-        <v>1.564969451257005E-09</v>
+        <v>1.564884158991665E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315012</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0.9526279649322563</v>
       </c>
       <c r="Q5">
-        <v>2.038008437079742E-09</v>
+        <v>2.037922457000812E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10774,16 +10774,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315011</v>
+        <v>0.9526279646315009</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322563</v>
+        <v>0.9526279649322565</v>
       </c>
       <c r="Q6">
-        <v>2.038006580248032E-09</v>
+        <v>2.037920897024357E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
